--- a/data_year/zb/价格指数/农村居民消费价格分类指数(上年=100)(-2015)/交通和通信类农村居民消费价格指数(上年=100).xlsx
+++ b/data_year/zb/价格指数/农村居民消费价格分类指数(上年=100)(-2015)/交通和通信类农村居民消费价格指数(上年=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,580 +488,222 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.59999999999999</v>
+        <v>100.3</v>
       </c>
       <c r="C2" t="n">
-        <v>95</v>
+        <v>99.5</v>
       </c>
       <c r="D2" t="n">
-        <v>93.59999999999999</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+        <v>102.2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>103.3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>111</v>
+      </c>
+      <c r="H2" t="n">
+        <v>101.5</v>
+      </c>
       <c r="I2" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>90.90000000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="K2" t="n">
+        <v>97.7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.7</v>
+        <v>101.30461306</v>
       </c>
       <c r="C3" t="n">
-        <v>96.59999999999999</v>
+        <v>100.18599548</v>
       </c>
       <c r="D3" t="n">
-        <v>99.7</v>
+        <v>103.48366673</v>
       </c>
       <c r="E3" t="n">
-        <v>104.9</v>
+        <v>103.18788719</v>
       </c>
       <c r="F3" t="n">
-        <v>102</v>
+        <v>104.81370246</v>
       </c>
       <c r="G3" t="n">
-        <v>97.90000000000001</v>
+        <v>111.31093264</v>
       </c>
       <c r="H3" t="n">
-        <v>99.3</v>
+        <v>102.63090005</v>
       </c>
       <c r="I3" t="n">
-        <v>89.09999999999999</v>
+        <v>91.53544182</v>
       </c>
       <c r="J3" t="n">
-        <v>98.59999999999999</v>
+        <v>99.94672097999999</v>
       </c>
       <c r="K3" t="n">
-        <v>96.5</v>
+        <v>98.14406624999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.2</v>
+        <v>100.55661168</v>
       </c>
       <c r="C4" t="n">
-        <v>95.5</v>
+        <v>100.15971796</v>
       </c>
       <c r="D4" t="n">
-        <v>98.8</v>
+        <v>101.85204883</v>
       </c>
       <c r="E4" t="n">
-        <v>103.7</v>
+        <v>103.35623526</v>
       </c>
       <c r="F4" t="n">
-        <v>100.3</v>
+        <v>103.3269835</v>
       </c>
       <c r="G4" t="n">
-        <v>98.2</v>
+        <v>102.87540708</v>
       </c>
       <c r="H4" t="n">
-        <v>98.7</v>
+        <v>103.06275953</v>
       </c>
       <c r="I4" t="n">
-        <v>88.3</v>
+        <v>92.93158527</v>
       </c>
       <c r="J4" t="n">
-        <v>99.8</v>
+        <v>99.98517334</v>
       </c>
       <c r="K4" t="n">
-        <v>97.3</v>
+        <v>98.57527356999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>98.6066</v>
+        <v>100.1</v>
       </c>
       <c r="C5" t="n">
-        <v>96.239</v>
+        <v>99.67555708</v>
       </c>
       <c r="D5" t="n">
-        <v>99.3977</v>
+        <v>100.7</v>
       </c>
       <c r="E5" t="n">
-        <v>102.5662</v>
+        <v>102.01109066</v>
       </c>
       <c r="F5" t="n">
-        <v>100.615</v>
+        <v>102.13376077</v>
       </c>
       <c r="G5" t="n">
-        <v>107.4156</v>
+        <v>99.40611019000001</v>
       </c>
       <c r="H5" t="n">
-        <v>97.7518</v>
+        <v>103.93863072</v>
       </c>
       <c r="I5" t="n">
-        <v>87.5685</v>
+        <v>95.03949273000001</v>
       </c>
       <c r="J5" t="n">
-        <v>100.1406</v>
+        <v>100.02657719</v>
       </c>
       <c r="K5" t="n">
-        <v>97.4209</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99.7667</v>
+        <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>97.7878</v>
+        <v>99.55585201</v>
       </c>
       <c r="D6" t="n">
-        <v>100.7191</v>
+        <v>100.4</v>
       </c>
       <c r="E6" t="n">
-        <v>103.4215</v>
+        <v>101.45845702</v>
       </c>
       <c r="F6" t="n">
-        <v>100.4695</v>
+        <v>101.82636869</v>
       </c>
       <c r="G6" t="n">
-        <v>107.1343</v>
+        <v>98.97756099999999</v>
       </c>
       <c r="H6" t="n">
-        <v>100.7405</v>
+        <v>103.15582671</v>
       </c>
       <c r="I6" t="n">
-        <v>89.93470000000001</v>
+        <v>97.20477574</v>
       </c>
       <c r="J6" t="n">
-        <v>100.7059</v>
+        <v>100.01477086</v>
       </c>
       <c r="K6" t="n">
-        <v>98.4191</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.2637</v>
+        <v>98.07910453</v>
       </c>
       <c r="C7" t="n">
-        <v>98.3935</v>
+        <v>99.16352956</v>
       </c>
       <c r="D7" t="n">
-        <v>101.9868</v>
+        <v>97.15249326999999</v>
       </c>
       <c r="E7" t="n">
-        <v>104.25</v>
+        <v>100.51097342</v>
       </c>
       <c r="F7" t="n">
-        <v>103.6066</v>
+        <v>102.31311705</v>
       </c>
       <c r="G7" t="n">
-        <v>109.5407</v>
+        <v>84.56272697999999</v>
       </c>
       <c r="H7" t="n">
-        <v>101.5455</v>
+        <v>102.3391719</v>
       </c>
       <c r="I7" t="n">
-        <v>91.08110000000001</v>
+        <v>97.94032873</v>
       </c>
       <c r="J7" t="n">
-        <v>99.6404</v>
+        <v>99.93134818999999</v>
       </c>
       <c r="K7" t="n">
-        <v>97.744</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>101.32205363</v>
-      </c>
-      <c r="C8" t="n">
-        <v>99.32689071</v>
-      </c>
-      <c r="D8" t="n">
-        <v>104.40935824</v>
-      </c>
-      <c r="E8" t="n">
-        <v>107.75747111</v>
-      </c>
-      <c r="F8" t="n">
-        <v>107.53035126</v>
-      </c>
-      <c r="G8" t="n">
-        <v>112.43569611</v>
-      </c>
-      <c r="H8" t="n">
-        <v>102.05870272</v>
-      </c>
-      <c r="I8" t="n">
-        <v>87.58895437</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100.3348443</v>
-      </c>
-      <c r="K8" t="n">
-        <v>97.23029441</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>100.6266278</v>
-      </c>
-      <c r="C9" t="n">
-        <v>99.21408344</v>
-      </c>
-      <c r="D9" t="n">
-        <v>102.06219763</v>
-      </c>
-      <c r="E9" t="n">
-        <v>104.38496501</v>
-      </c>
-      <c r="F9" t="n">
-        <v>104.03350488</v>
-      </c>
-      <c r="G9" t="n">
-        <v>103.94241255</v>
-      </c>
-      <c r="H9" t="n">
-        <v>102.58301448</v>
-      </c>
-      <c r="I9" t="n">
-        <v>87.59596695</v>
-      </c>
-      <c r="J9" t="n">
-        <v>102.03914981</v>
-      </c>
-      <c r="K9" t="n">
-        <v>98.69076397000001</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>100.67348851</v>
-      </c>
-      <c r="C10" t="n">
-        <v>100.95800483</v>
-      </c>
-      <c r="D10" t="n">
-        <v>104.34515992</v>
-      </c>
-      <c r="E10" t="n">
-        <v>106.45720217</v>
-      </c>
-      <c r="F10" t="n">
-        <v>103.72348626</v>
-      </c>
-      <c r="G10" t="n">
-        <v>113.30047013</v>
-      </c>
-      <c r="H10" t="n">
-        <v>101.177717</v>
-      </c>
-      <c r="I10" t="n">
-        <v>85.21401006000001</v>
-      </c>
-      <c r="J10" t="n">
-        <v>98.66102231000001</v>
-      </c>
-      <c r="K10" t="n">
-        <v>95.55268925999999</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>98.18162639000001</v>
-      </c>
-      <c r="C11" t="n">
-        <v>99.59490888000001</v>
-      </c>
-      <c r="D11" t="n">
-        <v>99.29282257</v>
-      </c>
-      <c r="E11" t="n">
-        <v>101.07823587</v>
-      </c>
-      <c r="F11" t="n">
-        <v>101.67233286</v>
-      </c>
-      <c r="G11" t="n">
-        <v>92.70090154</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100.8052575</v>
-      </c>
-      <c r="I11" t="n">
-        <v>87.19039229000001</v>
-      </c>
-      <c r="J11" t="n">
-        <v>99.37546506</v>
-      </c>
-      <c r="K11" t="n">
-        <v>96.51191876999999</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="E12" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>103.3</v>
-      </c>
-      <c r="G12" t="n">
-        <v>111</v>
-      </c>
-      <c r="H12" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="I12" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="J12" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="K12" t="n">
-        <v>97.7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>101.30461306</v>
-      </c>
-      <c r="C13" t="n">
-        <v>100.18599548</v>
-      </c>
-      <c r="D13" t="n">
-        <v>103.48366673</v>
-      </c>
-      <c r="E13" t="n">
-        <v>103.18788719</v>
-      </c>
-      <c r="F13" t="n">
-        <v>104.81370246</v>
-      </c>
-      <c r="G13" t="n">
-        <v>111.31093264</v>
-      </c>
-      <c r="H13" t="n">
-        <v>102.63090005</v>
-      </c>
-      <c r="I13" t="n">
-        <v>91.53544182</v>
-      </c>
-      <c r="J13" t="n">
-        <v>99.94672097999999</v>
-      </c>
-      <c r="K13" t="n">
-        <v>98.14406624999999</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>100.55661168</v>
-      </c>
-      <c r="C14" t="n">
-        <v>100.15971796</v>
-      </c>
-      <c r="D14" t="n">
-        <v>101.85204883</v>
-      </c>
-      <c r="E14" t="n">
-        <v>103.35623526</v>
-      </c>
-      <c r="F14" t="n">
-        <v>103.3269835</v>
-      </c>
-      <c r="G14" t="n">
-        <v>102.87540708</v>
-      </c>
-      <c r="H14" t="n">
-        <v>103.06275953</v>
-      </c>
-      <c r="I14" t="n">
-        <v>92.93158527</v>
-      </c>
-      <c r="J14" t="n">
-        <v>99.98517334</v>
-      </c>
-      <c r="K14" t="n">
-        <v>98.57527356999999</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>99.67555708</v>
-      </c>
-      <c r="D15" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="E15" t="n">
-        <v>102.01109066</v>
-      </c>
-      <c r="F15" t="n">
-        <v>102.13376077</v>
-      </c>
-      <c r="G15" t="n">
-        <v>99.40611019000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>103.93863072</v>
-      </c>
-      <c r="I15" t="n">
-        <v>95.03949273000001</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100.02657719</v>
-      </c>
-      <c r="K15" t="n">
-        <v>99.09999999999999</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>100</v>
-      </c>
-      <c r="C16" t="n">
-        <v>99.55585201</v>
-      </c>
-      <c r="D16" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="E16" t="n">
-        <v>101.45845702</v>
-      </c>
-      <c r="F16" t="n">
-        <v>101.82636869</v>
-      </c>
-      <c r="G16" t="n">
-        <v>98.97756099999999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>103.15582671</v>
-      </c>
-      <c r="I16" t="n">
-        <v>97.20477574</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100.01477086</v>
-      </c>
-      <c r="K16" t="n">
-        <v>99.5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>98.07910453</v>
-      </c>
-      <c r="C17" t="n">
-        <v>99.16352956</v>
-      </c>
-      <c r="D17" t="n">
-        <v>97.15249326999999</v>
-      </c>
-      <c r="E17" t="n">
-        <v>100.51097342</v>
-      </c>
-      <c r="F17" t="n">
-        <v>102.31311705</v>
-      </c>
-      <c r="G17" t="n">
-        <v>84.56272697999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>102.3391719</v>
-      </c>
-      <c r="I17" t="n">
-        <v>97.94032873</v>
-      </c>
-      <c r="J17" t="n">
-        <v>99.93134818999999</v>
-      </c>
-      <c r="K17" t="n">
         <v>99.57981063</v>
       </c>
     </row>
